--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_367__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_367__Reeval_Sobol_Modell_1.3.xlsx
@@ -6121,13 +6121,13 @@
                   <c:v>77.90114593505859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.31769180297852</c:v>
+                  <c:v>60.31769561767578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.77771759033203</c:v>
+                  <c:v>79.77772521972656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.47126770019531</c:v>
+                  <c:v>79.47127532958984</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44.122314453125</c:v>
@@ -6136,13 +6136,13 @@
                   <c:v>67.57424163818359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.06166839599609</c:v>
+                  <c:v>53.06167221069336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.25165557861328</c:v>
+                  <c:v>94.25167083740234</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78.5802001953125</c:v>
+                  <c:v>78.58020782470703</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>80.80766296386719</c:v>
@@ -6157,19 +6157,19 @@
                   <c:v>91.38764190673828</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.71725654602051</c:v>
+                  <c:v>25.71725845336914</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>97.06333923339844</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.99026489257812</c:v>
+                  <c:v>76.99027252197266</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>80.09394073486328</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.11224746704102</c:v>
+                  <c:v>50.11225128173828</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>80.98918151855469</c:v>
@@ -6181,46 +6181,46 @@
                   <c:v>51.89740753173828</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.54824447631836</c:v>
+                  <c:v>31.54824829101562</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53.02661895751953</c:v>
+                  <c:v>53.0266227722168</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>34.78855895996094</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>81.47701263427734</c:v>
+                  <c:v>81.47702026367188</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>60.78815841674805</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>75.58418273925781</c:v>
+                  <c:v>75.58419036865234</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>69.94541931152344</c:v>
+                  <c:v>69.9454345703125</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>84.56088256835938</c:v>
+                  <c:v>84.56089019775391</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>77.79586029052734</c:v>
+                  <c:v>77.79586791992188</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>76.97322845458984</c:v>
+                  <c:v>76.97323608398438</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>90.39272308349609</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>81.03004455566406</c:v>
+                  <c:v>81.03005218505859</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>82.98188781738281</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>81.45162200927734</c:v>
+                  <c:v>81.45162963867188</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>54.57638549804688</c:v>
@@ -6232,10 +6232,10 @@
                   <c:v>76.76524353027344</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>76.69893646240234</c:v>
+                  <c:v>76.69894409179688</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>32.7583122253418</c:v>
+                  <c:v>32.75831604003906</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>77.11624145507812</c:v>
@@ -6244,16 +6244,16 @@
                   <c:v>83.1041259765625</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>82.36290740966797</c:v>
+                  <c:v>82.36292266845703</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>57.68116760253906</c:v>
+                  <c:v>57.68117141723633</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>77.32253265380859</c:v>
+                  <c:v>77.32254028320312</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>78.09072113037109</c:v>
+                  <c:v>78.09072875976562</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>99.39891815185547</c:v>
@@ -6262,34 +6262,34 @@
                   <c:v>45.61570739746094</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>85.8160400390625</c:v>
+                  <c:v>85.81604766845703</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>19.96139526367188</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59.61671829223633</c:v>
+                  <c:v>59.61672210693359</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>98.22278594970703</c:v>
+                  <c:v>98.22279357910156</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>92.55947113037109</c:v>
+                  <c:v>92.55948638916016</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>77.24832153320312</c:v>
+                  <c:v>77.24833679199219</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>82.46711730957031</c:v>
+                  <c:v>82.46712493896484</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>68.1920166015625</c:v>
+                  <c:v>68.19202423095703</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>50.59023284912109</c:v>
+                  <c:v>50.59023666381836</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>72.28533172607422</c:v>
+                  <c:v>72.28533935546875</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>77.23232269287109</c:v>
@@ -6298,7 +6298,7 @@
                   <c:v>51.72858810424805</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>97.03678894042969</c:v>
+                  <c:v>97.03679656982422</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>81.57554626464844</c:v>
@@ -6310,16 +6310,16 @@
                   <c:v>77.97447204589844</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>41.23373413085938</c:v>
+                  <c:v>41.23373794555664</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>77.49850463867188</c:v>
+                  <c:v>77.49851226806641</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>89.21774291992188</c:v>
+                  <c:v>89.21775054931641</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>82.72587585449219</c:v>
+                  <c:v>82.72588348388672</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>82.61614227294922</c:v>
@@ -6337,16 +6337,16 @@
                   <c:v>26.61356353759766</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>87.06891632080078</c:v>
+                  <c:v>87.06892395019531</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>71.18400573730469</c:v>
+                  <c:v>71.18402099609375</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>91.43900299072266</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>14.0177526473999</c:v>
+                  <c:v>14.01774978637695</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>43.7025146484375</c:v>
@@ -6361,10 +6361,10 @@
                   <c:v>53.12375640869141</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>76.33124542236328</c:v>
+                  <c:v>76.33125305175781</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>85.36305999755859</c:v>
+                  <c:v>85.36306762695312</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>71.20485687255859</c:v>
@@ -6376,16 +6376,16 @@
                   <c:v>23.2403736114502</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>99.83538055419922</c:v>
+                  <c:v>99.83539581298828</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>85.09017944335938</c:v>
+                  <c:v>85.09018707275391</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>92.15860748291016</c:v>
+                  <c:v>92.15861511230469</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>54.5384407043457</c:v>
+                  <c:v>54.53844451904297</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>76.10292053222656</c:v>
@@ -6394,34 +6394,34 @@
                   <c:v>82.62117767333984</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>81.41239166259766</c:v>
+                  <c:v>81.41239929199219</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>42.36734771728516</c:v>
+                  <c:v>42.36735153198242</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>71.17726135253906</c:v>
+                  <c:v>71.17726898193359</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>75.76734924316406</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>82.34561920166016</c:v>
+                  <c:v>82.34563446044922</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>30.90996360778809</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>82.68428802490234</c:v>
+                  <c:v>82.68429565429688</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>73.81359100341797</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>79.17782592773438</c:v>
+                  <c:v>79.17783355712891</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>69.38999176025391</c:v>
+                  <c:v>69.39000701904297</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>76.9075927734375</c:v>
@@ -7151,7 +7151,7 @@
         <v>63.5721</v>
       </c>
       <c r="F3">
-        <v>60.31769180297852</v>
+        <v>60.31769561767578</v>
       </c>
       <c r="G3">
         <v>101</v>
@@ -7183,7 +7183,7 @@
         <v>72.6374</v>
       </c>
       <c r="F4">
-        <v>79.77771759033203</v>
+        <v>79.77772521972656</v>
       </c>
       <c r="G4">
         <v>101</v>
@@ -7215,7 +7215,7 @@
         <v>88.4752</v>
       </c>
       <c r="F5">
-        <v>79.47126770019531</v>
+        <v>79.47127532958984</v>
       </c>
       <c r="G5">
         <v>101</v>
@@ -7311,7 +7311,7 @@
         <v>49.0368</v>
       </c>
       <c r="F8">
-        <v>53.06166839599609</v>
+        <v>53.06167221069336</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>95.0206</v>
       </c>
       <c r="F9">
-        <v>94.25165557861328</v>
+        <v>94.25167083740234</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>75.5044</v>
       </c>
       <c r="F10">
-        <v>78.5802001953125</v>
+        <v>78.58020782470703</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>38.9871</v>
       </c>
       <c r="F15">
-        <v>25.71725654602051</v>
+        <v>25.71725845336914</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7491,7 +7491,7 @@
         <v>77.1523</v>
       </c>
       <c r="F17">
-        <v>76.99026489257812</v>
+        <v>76.99027252197266</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>51.4731</v>
       </c>
       <c r="F19">
-        <v>50.11224746704102</v>
+        <v>50.11225128173828</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>29.2626</v>
       </c>
       <c r="F23">
-        <v>31.54824447631836</v>
+        <v>31.54824829101562</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>51.853</v>
       </c>
       <c r="F24">
-        <v>53.02661895751953</v>
+        <v>53.0266227722168</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>79.8796</v>
       </c>
       <c r="F26">
-        <v>81.47701263427734</v>
+        <v>81.47702026367188</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>62.4651</v>
       </c>
       <c r="F28">
-        <v>75.58418273925781</v>
+        <v>75.58419036865234</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>82.548</v>
       </c>
       <c r="F29">
-        <v>69.94541931152344</v>
+        <v>69.9454345703125</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>78.3235</v>
       </c>
       <c r="F30">
-        <v>84.56088256835938</v>
+        <v>84.56089019775391</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>78.5082</v>
       </c>
       <c r="F31">
-        <v>77.79586029052734</v>
+        <v>77.79586791992188</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>76.2226</v>
       </c>
       <c r="F32">
-        <v>76.97322845458984</v>
+        <v>76.97323608398438</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>80.1123</v>
       </c>
       <c r="F34">
-        <v>81.03004455566406</v>
+        <v>81.03005218505859</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>73.6311</v>
       </c>
       <c r="F36">
-        <v>81.45162200927734</v>
+        <v>81.45162963867188</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>75.6026</v>
       </c>
       <c r="F40">
-        <v>76.69893646240234</v>
+        <v>76.69894409179688</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>38.9776</v>
       </c>
       <c r="F41">
-        <v>32.7583122253418</v>
+        <v>32.75831604003906</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>85.48820000000001</v>
       </c>
       <c r="F44">
-        <v>82.36290740966797</v>
+        <v>82.36292266845703</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>39.188</v>
       </c>
       <c r="F45">
-        <v>57.68116760253906</v>
+        <v>57.68117141723633</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>72.2573</v>
       </c>
       <c r="F46">
-        <v>77.32253265380859</v>
+        <v>77.32254028320312</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>75.5748</v>
       </c>
       <c r="F47">
-        <v>78.09072113037109</v>
+        <v>78.09072875976562</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>78.6082</v>
       </c>
       <c r="F50">
-        <v>85.8160400390625</v>
+        <v>85.81604766845703</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>61.0616</v>
       </c>
       <c r="F52">
-        <v>59.61671829223633</v>
+        <v>59.61672210693359</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>96.6493</v>
       </c>
       <c r="F53">
-        <v>98.22278594970703</v>
+        <v>98.22279357910156</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>91.5389</v>
       </c>
       <c r="F54">
-        <v>92.55947113037109</v>
+        <v>92.55948638916016</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>89.90649999999999</v>
       </c>
       <c r="F55">
-        <v>77.24832153320312</v>
+        <v>77.24833679199219</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>80.2208</v>
       </c>
       <c r="F56">
-        <v>82.46711730957031</v>
+        <v>82.46712493896484</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.977</v>
       </c>
       <c r="F57">
-        <v>68.1920166015625</v>
+        <v>68.19202423095703</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>51.7094</v>
       </c>
       <c r="F58">
-        <v>50.59023284912109</v>
+        <v>50.59023666381836</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>74.66889999999999</v>
       </c>
       <c r="F59">
-        <v>72.28533172607422</v>
+        <v>72.28533935546875</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>90.9457</v>
       </c>
       <c r="F62">
-        <v>97.03678894042969</v>
+        <v>97.03679656982422</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>38.8903</v>
       </c>
       <c r="F66">
-        <v>41.23373413085938</v>
+        <v>41.23373794555664</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>80.6164</v>
       </c>
       <c r="F67">
-        <v>77.49850463867188</v>
+        <v>77.49851226806641</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>89.6302</v>
       </c>
       <c r="F68">
-        <v>89.21774291992188</v>
+        <v>89.21775054931641</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>91.7517</v>
       </c>
       <c r="F69">
-        <v>82.72587585449219</v>
+        <v>82.72588348388672</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>86.751</v>
       </c>
       <c r="F75">
-        <v>87.06891632080078</v>
+        <v>87.06892395019531</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>71.3847</v>
       </c>
       <c r="F76">
-        <v>71.18400573730469</v>
+        <v>71.18402099609375</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>21.8916</v>
       </c>
       <c r="F78">
-        <v>14.0177526473999</v>
+        <v>14.01774978637695</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>74.2764</v>
       </c>
       <c r="F83">
-        <v>76.33124542236328</v>
+        <v>76.33125305175781</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>85.5154</v>
       </c>
       <c r="F84">
-        <v>85.36305999755859</v>
+        <v>85.36306762695312</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>96.01479999999999</v>
       </c>
       <c r="F88">
-        <v>99.83538055419922</v>
+        <v>99.83539581298828</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>90.2206</v>
       </c>
       <c r="F89">
-        <v>85.09017944335938</v>
+        <v>85.09018707275391</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>89.8989</v>
       </c>
       <c r="F90">
-        <v>92.15860748291016</v>
+        <v>92.15861511230469</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>57.9143</v>
       </c>
       <c r="F91">
-        <v>54.5384407043457</v>
+        <v>54.53844451904297</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>79.09650000000001</v>
       </c>
       <c r="F94">
-        <v>81.41239166259766</v>
+        <v>81.41239929199219</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>43.9895</v>
       </c>
       <c r="F95">
-        <v>42.36734771728516</v>
+        <v>42.36735153198242</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>65.3784</v>
       </c>
       <c r="F96">
-        <v>71.17726135253906</v>
+        <v>71.17726898193359</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>84.7602</v>
       </c>
       <c r="F98">
-        <v>82.34561920166016</v>
+        <v>82.34563446044922</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>80.6146</v>
       </c>
       <c r="F100">
-        <v>82.68428802490234</v>
+        <v>82.68429565429688</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>80.7841</v>
       </c>
       <c r="F102">
-        <v>79.17782592773438</v>
+        <v>79.17783355712891</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>62.6855</v>
       </c>
       <c r="F103">
-        <v>69.38999176025391</v>
+        <v>69.39000701904297</v>
       </c>
     </row>
     <row r="104" spans="1:6">
